--- a/BackTest/2020-01-22 BackTest AMO.xlsx
+++ b/BackTest/2020-01-22 BackTest AMO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-2455243.002318986</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-2455243.002318986</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.2523</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-1374767.199318986</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-2277251.992318986</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,7 +583,7 @@
         <v>-1569709.734318986</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0.2517</v>
@@ -640,7 +620,7 @@
         <v>-2497621.814318986</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0.2523</v>
@@ -681,7 +661,7 @@
         <v>-3756088.627318986</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0.252</v>
@@ -722,7 +702,7 @@
         <v>-4539912.746318987</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0.2519</v>
@@ -759,7 +739,7 @@
         <v>-4539912.746318987</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0.2518</v>
@@ -800,7 +780,7 @@
         <v>-3247542.884318987</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0.2518</v>
@@ -841,7 +821,7 @@
         <v>-2099260.982318987</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0.2523</v>
@@ -878,7 +858,7 @@
         <v>-3603524.904318987</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0.2524</v>
@@ -919,7 +899,7 @@
         <v>-2336582.329318987</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0.2521</v>
@@ -960,7 +940,7 @@
         <v>-3366203.557318987</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0.2525</v>
@@ -997,7 +977,7 @@
         <v>-3366203.557318987</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0.2524</v>
@@ -1038,7 +1018,7 @@
         <v>-2328106.566318987</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0.2524</v>
@@ -1079,7 +1059,7 @@
         <v>-3612000.666318987</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0.2525</v>
@@ -1116,7 +1096,7 @@
         <v>-2124688.269318988</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0.2519</v>
@@ -1157,7 +1137,7 @@
         <v>-3569621.854318988</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0.252</v>
@@ -1198,7 +1178,7 @@
         <v>-2870555.359318987</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0.2518</v>
@@ -1235,7 +1215,7 @@
         <v>-3857797.775318988</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0.2525</v>
@@ -1276,7 +1256,7 @@
         <v>-2446767.240318988</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0.2522</v>
@@ -1317,7 +1297,7 @@
         <v>-3679806.765318987</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0.2525</v>
@@ -1354,7 +1334,7 @@
         <v>-5201022.211318987</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0.2524</v>
@@ -1395,7 +1375,7 @@
         <v>-4366343.517318987</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0.2521</v>
@@ -1436,7 +1416,7 @@
         <v>-5099313.062318987</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0.2525</v>
@@ -1473,7 +1453,7 @@
         <v>-3645903.715318987</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0.2517</v>
@@ -1514,7 +1494,7 @@
         <v>-2853603.833318987</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0.2518</v>
@@ -1555,7 +1535,7 @@
         <v>-3654379.477318987</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0.252</v>
@@ -1592,7 +1572,7 @@
         <v>-2912934.170318987</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0.2517</v>
@@ -1633,7 +1613,7 @@
         <v>-4018837.260318987</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0.2522</v>
@@ -1674,7 +1654,7 @@
         <v>-4018837.260318987</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0.2518</v>
@@ -1711,7 +1691,7 @@
         <v>-5404440.508318987</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0.2518</v>
@@ -1752,7 +1732,7 @@
         <v>-4315488.943318987</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0.2517</v>
@@ -1793,7 +1773,7 @@
         <v>-5506149.657318987</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0.2521</v>
@@ -1830,7 +1810,7 @@
         <v>-4493479.953318987</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0.2518</v>
@@ -1871,7 +1851,7 @@
         <v>-5624810.330318987</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0.2523</v>
@@ -1912,7 +1892,7 @@
         <v>-5624810.330318987</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0.252</v>
@@ -1949,7 +1929,7 @@
         <v>-4654519.438318987</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0.252</v>
@@ -1990,7 +1970,7 @@
         <v>-3896122.606318987</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0.2521</v>
@@ -2031,7 +2011,7 @@
         <v>-2544422.407318987</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0.2524</v>
@@ -2068,7 +2048,7 @@
         <v>-3794413.457318988</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0.2525</v>
@@ -2109,7 +2089,7 @@
         <v>-2637655.793318988</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0.2519</v>
@@ -2150,7 +2130,7 @@
         <v>-1175770.683318988</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0.2523</v>
@@ -2187,7 +2167,7 @@
         <v>-2417285.971318988</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0.2527</v>
@@ -2228,7 +2208,7 @@
         <v>-1362237.456318988</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0.2519</v>
@@ -2269,7 +2249,7 @@
         <v>-44440.30731898779</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0.2521</v>
@@ -2306,7 +2286,7 @@
         <v>-44440.30731898779</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0.2522</v>
@@ -2347,7 +2327,7 @@
         <v>807189.9106810122</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0.2522</v>
@@ -2388,7 +2368,7 @@
         <v>-10537.25831898779</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0.2526</v>
@@ -2425,7 +2405,7 @@
         <v>951277.8706810122</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0.2525</v>
@@ -2466,7 +2446,7 @@
         <v>-2038848.587518988</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0.2528</v>
@@ -2507,7 +2487,7 @@
         <v>-8120182.382318988</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0.2516</v>
@@ -2548,7 +2528,7 @@
         <v>-6607442.698318988</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0.2515</v>
@@ -2589,7 +2569,7 @@
         <v>-7789627.649318988</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0.2526</v>
@@ -2630,7 +2610,7 @@
         <v>-6565063.886318987</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0.2521</v>
@@ -2671,7 +2651,7 @@
         <v>-7586209.352318987</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0.2528</v>
@@ -2712,7 +2692,7 @@
         <v>-6242984.916318987</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0.2523</v>
@@ -2753,7 +2733,7 @@
         <v>-7416694.105318988</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0.2528</v>
@@ -2794,7 +2774,7 @@
         <v>-6590491.174318988</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0.252</v>
@@ -2835,7 +2815,7 @@
         <v>-7654015.452318988</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0.2528</v>
@@ -2876,7 +2856,7 @@
         <v>-6793909.471318988</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0.2517</v>
@@ -2917,7 +2897,7 @@
         <v>-8128658.145318989</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0.252</v>
@@ -2958,7 +2938,7 @@
         <v>-7438067.412318989</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0.2517</v>
@@ -2999,7 +2979,7 @@
         <v>-8747388.799318988</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0.2521</v>
@@ -3040,7 +3020,7 @@
         <v>-7861855.531318988</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0.2519</v>
@@ -3081,7 +3061,7 @@
         <v>-8772816.086318988</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0.2527</v>
@@ -3122,7 +3102,7 @@
         <v>-9539688.681318989</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0.2525</v>
@@ -3163,7 +3143,7 @@
         <v>-10264182.46431899</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0.2521</v>
@@ -3204,7 +3184,7 @@
         <v>-9141327.850318989</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0.2519</v>
@@ -3245,7 +3225,7 @@
         <v>-10518455.33631899</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0.2525</v>
@@ -3286,7 +3266,7 @@
         <v>-9404076.484318988</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0.2517</v>
@@ -3327,7 +3307,7 @@
         <v>-9404076.484318988</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0.252</v>
@@ -3368,7 +3348,7 @@
         <v>-10357415.85131899</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0.252</v>
@@ -3409,7 +3389,7 @@
         <v>-8937909.553318989</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0.2518</v>
@@ -3450,7 +3430,7 @@
         <v>-10264182.46531899</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0.2521</v>
@@ -3491,7 +3471,7 @@
         <v>-9268464.286318989</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0.252</v>
@@ -3532,7 +3512,7 @@
         <v>-10433697.71231899</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0.2525</v>
@@ -3573,7 +3553,7 @@
         <v>-9658349.35531899</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0.2523</v>
@@ -3614,7 +3594,7 @@
         <v>-9658349.35531899</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0.2525</v>
@@ -3655,7 +3635,7 @@
         <v>-10730349.39531899</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0.2525</v>
@@ -3696,7 +3676,7 @@
         <v>-10730349.39531899</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0.2524</v>
@@ -3737,7 +3717,7 @@
         <v>-9361697.671318989</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0.2524</v>
@@ -3778,7 +3758,7 @@
         <v>-9361697.671318989</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0.2525</v>
@@ -3819,7 +3799,7 @@
         <v>-10832058.54331899</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0.2525</v>
@@ -3860,7 +3840,7 @@
         <v>-10832058.54331899</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0.2523</v>
@@ -3901,7 +3881,7 @@
         <v>-11709116.04831899</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0.2523</v>
@@ -3942,7 +3922,7 @@
         <v>-10865961.59231899</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0.2517</v>
@@ -3983,7 +3963,7 @@
         <v>-12395652.80131899</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0.2521</v>
@@ -4024,7 +4004,7 @@
         <v>-11196516.32531899</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0.2516</v>
@@ -4065,7 +4045,7 @@
         <v>-9802437.31431899</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0.2518</v>
@@ -4106,7 +4086,7 @@
         <v>-10611688.72031899</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0.2525</v>
@@ -4147,7 +4127,7 @@
         <v>-9632922.066318991</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0.2517</v>
@@ -4188,11 +4168,9 @@
         <v>-11060904.12631899</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0.2522</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
         <v>0.2526</v>
       </c>
@@ -4229,7 +4207,7 @@
         <v>-9921097.987318991</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0.2517</v>
@@ -4270,7 +4248,7 @@
         <v>-8620252.363318991</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0.2519</v>
@@ -4311,7 +4289,7 @@
         <v>-7404164.362318991</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0.2524</v>
@@ -4352,7 +4330,7 @@
         <v>-8323600.679318991</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0.2525</v>
@@ -4393,7 +4371,7 @@
         <v>-8323600.679318991</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0.2521</v>
@@ -4434,7 +4412,7 @@
         <v>-9683776.64031899</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0.2521</v>
@@ -4475,7 +4453,7 @@
         <v>-8247318.81731899</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0.2518</v>
@@ -4516,7 +4494,7 @@
         <v>-9344746.14431899</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0.2521</v>
@@ -4557,7 +4535,7 @@
         <v>-9293878.62021899</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0.2516</v>
@@ -4598,7 +4576,7 @@
         <v>-10009896.64021899</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0.2526</v>
@@ -4639,9 +4617,11 @@
         <v>-8929420.837218991</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.2522</v>
+      </c>
       <c r="J106" t="n">
         <v>0.2526</v>
       </c>
@@ -4678,7 +4658,7 @@
         <v>-9831905.63021899</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0.2525</v>
@@ -4719,7 +4699,7 @@
         <v>-9124363.372218991</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0.252</v>
@@ -4760,7 +4740,7 @@
         <v>-10052275.45221899</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0.2525</v>
@@ -4801,7 +4781,7 @@
         <v>-11310742.26521899</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0.2524</v>
@@ -4842,7 +4822,7 @@
         <v>-10526918.14621899</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0.2522</v>
@@ -4883,7 +4863,7 @@
         <v>-11531112.08721899</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0.2525</v>
@@ -4924,7 +4904,7 @@
         <v>-10238742.22521899</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0.2518</v>
@@ -4965,7 +4945,7 @@
         <v>-11387024.12721899</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0.252</v>
@@ -5006,7 +4986,7 @@
         <v>-9882760.205218993</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0.2517</v>
@@ -5047,7 +5027,7 @@
         <v>-11149702.78021899</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0.2519</v>
@@ -5088,7 +5068,7 @@
         <v>-10120081.55221899</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0.2517</v>
@@ -5129,7 +5109,7 @@
         <v>-8912469.314218992</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0.252</v>
@@ -5170,7 +5150,7 @@
         <v>-9950566.305218993</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0.2523</v>
@@ -5211,7 +5191,7 @@
         <v>-11234460.40521899</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0.2519</v>
@@ -5252,7 +5232,7 @@
         <v>-9747148.008218993</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0.2516</v>
@@ -5293,7 +5273,7 @@
         <v>-8302214.423218993</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0.2519</v>
@@ -5334,7 +5314,7 @@
         <v>-8122214.423218993</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0.2526</v>
@@ -5375,7 +5355,7 @@
         <v>-8821280.918218993</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0.2529</v>
@@ -5416,7 +5396,7 @@
         <v>-7821541.931218993</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0.2528</v>
@@ -5457,7 +5437,7 @@
         <v>-10615834.79771899</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0.2529</v>
@@ -5498,7 +5478,7 @@
         <v>-9382795.272718992</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0.2515</v>
@@ -5539,7 +5519,7 @@
         <v>-7861579.826718992</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0.252</v>
@@ -5580,7 +5560,7 @@
         <v>-7026901.132718991</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0.2527</v>
@@ -5621,7 +5601,7 @@
         <v>-7759870.677718991</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0.2529</v>
@@ -5662,7 +5642,7 @@
         <v>-6306461.330718991</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0.2528</v>
@@ -5703,7 +5683,7 @@
         <v>-7098761.212718992</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0.2529</v>
@@ -5744,7 +5724,7 @@
         <v>-7096539.212718992</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0.2524</v>
@@ -5785,7 +5765,7 @@
         <v>-7897314.856718992</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0.253</v>
@@ -5826,7 +5806,7 @@
         <v>-7155869.549718992</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0.2523</v>
@@ -5867,7 +5847,7 @@
         <v>-8261772.639718992</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0.2525</v>
@@ -5908,7 +5888,7 @@
         <v>-7373685.758318991</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0.2516</v>
@@ -5949,7 +5929,7 @@
         <v>-8759289.006318992</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0.253</v>
@@ -5990,7 +5970,7 @@
         <v>-9848240.571318991</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0.2526</v>
@@ -6031,7 +6011,7 @@
         <v>-8657579.857318992</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0.252</v>
@@ -6072,7 +6052,7 @@
         <v>-7642688.153318992</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0.2522</v>
@@ -6113,7 +6093,7 @@
         <v>-8776240.530318992</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0.2528</v>
@@ -6154,7 +6134,7 @@
         <v>-8778462.530318992</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0.2524</v>
@@ -6195,7 +6175,7 @@
         <v>-7299625.896318993</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0.2516</v>
@@ -6236,7 +6216,7 @@
         <v>-6329335.004318993</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0.252</v>
@@ -6277,7 +6257,7 @@
         <v>-6384335.004318993</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>0.2526</v>
@@ -6318,7 +6298,7 @@
         <v>-5393173.132793301</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>0.252</v>
@@ -6359,7 +6339,7 @@
         <v>-6800428.331793301</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>0.2523</v>
@@ -6400,7 +6380,7 @@
         <v>-6855983.331793301</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>0.2522</v>
@@ -6441,7 +6421,7 @@
         <v>-6855983.331793301</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>0.252</v>
@@ -6482,7 +6462,7 @@
         <v>-6855983.331793301</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>0.252</v>
@@ -6523,7 +6503,7 @@
         <v>-5588115.667793301</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>0.252</v>
@@ -6564,7 +6544,7 @@
         <v>-5699225.667793301</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>0.2525</v>
@@ -6605,7 +6585,7 @@
         <v>-4070675.557793301</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>0.252</v>
@@ -6646,7 +6626,7 @@
         <v>-5317976.8457933</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>0.2524</v>
@@ -6687,7 +6667,7 @@
         <v>-5317976.8457933</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>0.2519</v>
@@ -6728,7 +6708,7 @@
         <v>-5263026.6718933</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>0.2519</v>
@@ -6769,7 +6749,7 @@
         <v>-6585683.820893301</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>0.253</v>
@@ -6810,7 +6790,7 @@
         <v>-5310265.4838933</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>0.2512</v>
@@ -6851,7 +6831,7 @@
         <v>-5307876.2208933</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>0.2523</v>
@@ -6892,7 +6872,7 @@
         <v>-6159506.4388933</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>0.253</v>
@@ -6933,11 +6913,9 @@
         <v>-6977233.6078933</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0.2525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
         <v>0.2526</v>
       </c>
@@ -6974,7 +6952,7 @@
         <v>-6977233.6078933</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>0.2516</v>
@@ -7015,7 +6993,7 @@
         <v>-5930660.854893301</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>0.2516</v>
@@ -7056,7 +7034,7 @@
         <v>-5856380.967618993</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>0.2521</v>
@@ -7097,7 +7075,7 @@
         <v>-4341243.427618993</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>0.253</v>
@@ -7138,7 +7116,7 @@
         <v>-3159058.476618993</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>0.2537</v>
@@ -7179,11 +7157,9 @@
         <v>-4383622.239618992</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0.2539</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
         <v>0.2526</v>
       </c>
@@ -7220,11 +7196,9 @@
         <v>-3362476.773618992</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0.2534</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
         <v>0.2526</v>
       </c>
@@ -7261,11 +7235,9 @@
         <v>-2019252.337618992</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0.2537</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
         <v>0.2526</v>
       </c>
@@ -7302,11 +7274,9 @@
         <v>-2019252.337618992</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0.2539</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
         <v>0.2526</v>
       </c>
@@ -7343,11 +7313,9 @@
         <v>-3192961.526618992</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0.2539</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
         <v>0.2526</v>
       </c>
@@ -7384,11 +7352,9 @@
         <v>-4019164.457618992</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0.2536</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
         <v>0.2526</v>
       </c>
@@ -7464,11 +7430,9 @@
         <v>-2095534.198618992</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0.2534</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
         <v>0.2526</v>
       </c>
@@ -9416,7 +9380,7 @@
         <v>49173189.98838101</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
@@ -9424,11 +9388,11 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L225" t="n">
-        <v>1</v>
+        <v>1.04804829770388</v>
       </c>
       <c r="M225" t="inlineStr"/>
     </row>
@@ -9455,17 +9419,11 @@
         <v>49173189.98838101</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9494,19 +9452,13 @@
         <v>42845836.13998102</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
-        <v>1.024691211401425</v>
+        <v>1</v>
       </c>
       <c r="M227" t="inlineStr"/>
     </row>
@@ -9533,7 +9485,7 @@
         <v>40712879.96748102</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9566,7 +9518,7 @@
         <v>39855500.18238102</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9599,7 +9551,7 @@
         <v>43045173.19138102</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -9632,7 +9584,7 @@
         <v>43049498.42738102</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -9665,7 +9617,7 @@
         <v>42265674.30838102</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9698,7 +9650,7 @@
         <v>41130440.91918102</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9731,7 +9683,7 @@
         <v>40126246.97818102</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9764,7 +9716,7 @@
         <v>39758800.08128102</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9797,7 +9749,7 @@
         <v>41053322.17328102</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9830,7 +9782,7 @@
         <v>42201604.07528102</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9863,7 +9815,7 @@
         <v>40697340.15328103</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9896,7 +9848,7 @@
         <v>41964282.72828103</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9929,7 +9881,7 @@
         <v>41986504.41138103</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9995,7 +9947,7 @@
         <v>41386837.77618103</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -10028,7 +9980,7 @@
         <v>41533962.77618103</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -10061,7 +10013,7 @@
         <v>40495865.78518103</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -10094,7 +10046,7 @@
         <v>41794261.88518103</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -10127,7 +10079,7 @@
         <v>41796483.88518103</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -10160,7 +10112,7 @@
         <v>40211159.81918103</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -10193,7 +10145,7 @@
         <v>38766226.23418103</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -10226,7 +10178,7 @@
         <v>38067159.73918103</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -10259,7 +10211,7 @@
         <v>35486486.46558104</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -10292,7 +10244,7 @@
         <v>35488701.70158104</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -10787,7 +10739,7 @@
         <v>38142076.23738104</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10820,7 +10772,7 @@
         <v>36756472.98938104</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10853,7 +10805,7 @@
         <v>36758458.55238104</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10886,7 +10838,7 @@
         <v>35669506.98738104</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10919,7 +10871,7 @@
         <v>36860167.70138104</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10952,7 +10904,7 @@
         <v>37875059.40538105</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10985,7 +10937,7 @@
         <v>37875059.40538105</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -11348,7 +11300,7 @@
         <v>34200976.19378104</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -12239,7 +12191,7 @@
         <v>24687787.28858104</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12272,7 +12224,7 @@
         <v>24691632.55418104</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12371,7 +12323,7 @@
         <v>23034804.91018104</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12404,7 +12356,7 @@
         <v>21615298.61218104</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12437,7 +12389,7 @@
         <v>22941571.52418104</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12470,7 +12422,7 @@
         <v>21945853.34518104</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12503,7 +12455,7 @@
         <v>23111086.77118104</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12536,7 +12488,7 @@
         <v>20453433.98858104</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12569,7 +12521,7 @@
         <v>21230779.30558104</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12602,7 +12554,7 @@
         <v>20294391.46358104</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12635,7 +12587,7 @@
         <v>21366391.50358104</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12668,7 +12620,7 @@
         <v>20616470.43358104</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12701,7 +12653,7 @@
         <v>19247818.70958104</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12734,7 +12686,7 @@
         <v>20192682.31458104</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12767,7 +12719,7 @@
         <v>21678065.19388103</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12800,7 +12752,7 @@
         <v>21662561.31788104</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12833,7 +12785,7 @@
         <v>23834687.04998104</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12866,7 +12818,7 @@
         <v>22957629.54498104</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12899,7 +12851,7 @@
         <v>22114475.08898104</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12932,7 +12884,7 @@
         <v>20584783.87998104</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12965,7 +12917,7 @@
         <v>19385647.40398104</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12998,7 +12950,7 @@
         <v>20781723.37498104</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -13031,7 +12983,7 @@
         <v>19972471.96898104</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -13064,7 +13016,7 @@
         <v>18993705.31498104</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -13097,7 +13049,7 @@
         <v>17565723.25498104</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13130,7 +13082,7 @@
         <v>18705529.39398104</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13163,7 +13115,7 @@
         <v>20006375.01798104</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13196,7 +13148,7 @@
         <v>21222463.01898104</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13229,7 +13181,7 @@
         <v>20303026.70198104</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13262,7 +13214,7 @@
         <v>21197035.73198104</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13295,7 +13247,7 @@
         <v>21197035.73198104</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13328,7 +13280,7 @@
         <v>22633493.55498104</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13361,7 +13313,7 @@
         <v>21536066.22798104</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13394,7 +13346,7 @@
         <v>20820048.20798104</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13427,7 +13379,7 @@
         <v>21900524.01098104</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13460,7 +13412,7 @@
         <v>22803008.80398104</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13493,7 +13445,7 @@
         <v>21881367.99468104</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13526,7 +13478,7 @@
         <v>20953455.91468104</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13559,7 +13511,7 @@
         <v>20953455.91468104</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13592,7 +13544,7 @@
         <v>20953455.91468104</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13625,7 +13577,7 @@
         <v>20953455.91468104</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13658,7 +13610,7 @@
         <v>20953455.91468104</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13691,7 +13643,7 @@
         <v>20953455.91468104</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13724,7 +13676,7 @@
         <v>20953455.91468104</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13757,7 +13709,7 @@
         <v>20953455.91468104</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13790,7 +13742,7 @@
         <v>19923834.68668104</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13856,7 +13808,7 @@
         <v>20085731.56788104</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13889,7 +13841,7 @@
         <v>21123828.55888104</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13922,7 +13874,7 @@
         <v>21125825.12088104</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13988,7 +13940,7 @@
         <v>18354618.62388104</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -16331,7 +16283,7 @@
         <v>-64890804.84466789</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16727,7 +16679,7 @@
         <v>-71979595.9757679</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16760,7 +16712,7 @@
         <v>-70585516.9647679</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -17156,7 +17108,7 @@
         <v>-70993121.13816789</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17222,7 +17174,7 @@
         <v>-71372458.44016789</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17255,7 +17207,7 @@
         <v>-70291982.63716789</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17288,7 +17240,7 @@
         <v>-71194467.43016788</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17354,7 +17306,7 @@
         <v>-70974097.60816789</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17387,7 +17339,7 @@
         <v>-69715630.79516789</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17420,7 +17372,7 @@
         <v>-70499454.9141679</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -20093,10 +20045,14 @@
         <v>-126352738.8088679</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="J548" t="n">
+        <v>0.2527</v>
+      </c>
       <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
@@ -20126,11 +20082,19 @@
         <v>-127297602.4138679</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="J549" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20159,11 +20123,19 @@
         <v>-128767963.2858679</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="J550" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20192,10 +20164,14 @@
         <v>-130170518.0588679</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="J551" t="n">
+        <v>0.2523</v>
+      </c>
       <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
@@ -20225,11 +20201,19 @@
         <v>-129293460.5538679</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="J552" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20258,11 +20242,19 @@
         <v>-130136615.0098679</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="J553" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20291,10 +20283,14 @@
         <v>-128606923.8008679</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="J554" t="n">
+        <v>0.2523</v>
+      </c>
       <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
@@ -20324,11 +20320,19 @@
         <v>-128604923.8008679</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="J555" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20360,8 +20364,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20555,10 +20565,14 @@
         <v>-132078514.0116679</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="J562" t="n">
+        <v>0.2519</v>
+      </c>
       <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
@@ -20591,8 +20605,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20621,11 +20641,19 @@
         <v>-129561580.3866679</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="J564" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20654,10 +20682,14 @@
         <v>-130481016.7036679</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>0.2537</v>
+      </c>
+      <c r="J565" t="n">
+        <v>0.2537</v>
+      </c>
       <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
@@ -20687,11 +20719,19 @@
         <v>-131375025.7336679</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>0.2531</v>
+      </c>
+      <c r="J566" t="n">
+        <v>0.2537</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20720,11 +20760,19 @@
         <v>-130014849.7726679</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="J567" t="n">
+        <v>0.2537</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20753,10 +20801,14 @@
         <v>-131451307.5956679</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="J568" t="n">
+        <v>0.2529</v>
+      </c>
       <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
@@ -20786,11 +20838,19 @@
         <v>-130353880.2686679</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="J569" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20819,11 +20879,19 @@
         <v>-131069898.2886679</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>0.2537</v>
+      </c>
+      <c r="J570" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20852,10 +20920,14 @@
         <v>-132150374.0916679</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>0.2534</v>
+      </c>
+      <c r="J571" t="n">
+        <v>0.2534</v>
+      </c>
       <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
@@ -20885,11 +20957,19 @@
         <v>-131247889.2986679</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="J572" t="n">
+        <v>0.2534</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20918,11 +20998,19 @@
         <v>-131955431.5566679</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="J573" t="n">
+        <v>0.2534</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20951,10 +21039,14 @@
         <v>-131027519.4766679</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="J574" t="n">
+        <v>0.2521</v>
+      </c>
       <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
@@ -20984,11 +21076,19 @@
         <v>-132285986.2896679</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="J575" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -21017,11 +21117,19 @@
         <v>-131502162.1706679</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="J576" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -21050,10 +21158,14 @@
         <v>-132506356.1116679</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="J577" t="n">
+        <v>0.2527</v>
+      </c>
       <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
@@ -21083,11 +21195,19 @@
         <v>-131213986.2496679</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="J578" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -21116,11 +21236,19 @@
         <v>-132362268.1516678</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="J579" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -21391,6 +21519,6 @@
       <c r="M587" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest AMO.xlsx
+++ b/BackTest/2020-01-22 BackTest AMO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-2455243.002318986</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -583,14 +583,10 @@
         <v>-1569709.734318986</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.2517</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -620,19 +616,11 @@
         <v>-2497621.814318986</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -661,19 +649,11 @@
         <v>-3756088.627318986</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -702,14 +682,10 @@
         <v>-4539912.746318987</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.2519</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -739,19 +715,11 @@
         <v>-4539912.746318987</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -780,19 +748,11 @@
         <v>-3247542.884318987</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -821,14 +781,10 @@
         <v>-2099260.982318987</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.2523</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -858,19 +814,11 @@
         <v>-3603524.904318987</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -899,19 +847,11 @@
         <v>-2336582.329318987</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -940,14 +880,10 @@
         <v>-3366203.557318987</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.2525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
@@ -977,19 +913,11 @@
         <v>-3366203.557318987</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1018,19 +946,11 @@
         <v>-2328106.566318987</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1059,14 +979,10 @@
         <v>-3612000.666318987</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.2525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
@@ -1096,19 +1012,11 @@
         <v>-2124688.269318988</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1137,19 +1045,11 @@
         <v>-3569621.854318988</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1178,14 +1078,10 @@
         <v>-2870555.359318987</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.2518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
@@ -1215,19 +1111,11 @@
         <v>-3857797.775318988</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1256,19 +1144,11 @@
         <v>-2446767.240318988</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1297,14 +1177,10 @@
         <v>-3679806.765318987</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.2525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
@@ -1334,19 +1210,11 @@
         <v>-5201022.211318987</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1375,19 +1243,11 @@
         <v>-4366343.517318987</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1416,14 +1276,10 @@
         <v>-5099313.062318987</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.2525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
@@ -1453,19 +1309,11 @@
         <v>-3645903.715318987</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1494,19 +1342,11 @@
         <v>-2853603.833318987</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1535,14 +1375,10 @@
         <v>-3654379.477318987</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.252</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
@@ -1572,19 +1408,11 @@
         <v>-2912934.170318987</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1613,19 +1441,11 @@
         <v>-4018837.260318987</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1654,14 +1474,10 @@
         <v>-4018837.260318987</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.2518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
@@ -1691,19 +1507,11 @@
         <v>-5404440.508318987</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1732,19 +1540,11 @@
         <v>-4315488.943318987</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1773,14 +1573,10 @@
         <v>-5506149.657318987</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.2521</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
@@ -1810,19 +1606,11 @@
         <v>-4493479.953318987</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1851,19 +1639,11 @@
         <v>-5624810.330318987</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1892,14 +1672,10 @@
         <v>-5624810.330318987</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.252</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
@@ -1929,19 +1705,11 @@
         <v>-4654519.438318987</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1970,19 +1738,11 @@
         <v>-3896122.606318987</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2011,14 +1771,10 @@
         <v>-2544422.407318987</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.2524</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
@@ -2048,19 +1804,11 @@
         <v>-3794413.457318988</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2089,19 +1837,11 @@
         <v>-2637655.793318988</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2130,14 +1870,10 @@
         <v>-1175770.683318988</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.2523</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
@@ -2167,19 +1903,11 @@
         <v>-2417285.971318988</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2208,19 +1936,11 @@
         <v>-1362237.456318988</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2249,14 +1969,10 @@
         <v>-44440.30731898779</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.2521</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
@@ -2286,19 +2002,11 @@
         <v>-44440.30731898779</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2327,19 +2035,11 @@
         <v>807189.9106810122</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2368,14 +2068,10 @@
         <v>-10537.25831898779</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.2526</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
@@ -2405,19 +2101,11 @@
         <v>951277.8706810122</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2446,19 +2134,11 @@
         <v>-2038848.587518988</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2487,19 +2167,11 @@
         <v>-8120182.382318988</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2528,19 +2200,11 @@
         <v>-6607442.698318988</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2569,19 +2233,11 @@
         <v>-7789627.649318988</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2610,19 +2266,11 @@
         <v>-6565063.886318987</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2651,19 +2299,11 @@
         <v>-7586209.352318987</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2692,19 +2332,11 @@
         <v>-6242984.916318987</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2733,19 +2365,11 @@
         <v>-7416694.105318988</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2774,19 +2398,11 @@
         <v>-6590491.174318988</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2815,19 +2431,11 @@
         <v>-7654015.452318988</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2856,19 +2464,11 @@
         <v>-6793909.471318988</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2897,19 +2497,11 @@
         <v>-8128658.145318989</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2938,19 +2530,11 @@
         <v>-7438067.412318989</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2979,19 +2563,11 @@
         <v>-8747388.799318988</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3020,19 +2596,11 @@
         <v>-7861855.531318988</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3061,19 +2629,11 @@
         <v>-8772816.086318988</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3102,19 +2662,11 @@
         <v>-9539688.681318989</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3143,19 +2695,11 @@
         <v>-10264182.46431899</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3184,19 +2728,11 @@
         <v>-9141327.850318989</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3225,19 +2761,11 @@
         <v>-10518455.33631899</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3266,19 +2794,11 @@
         <v>-9404076.484318988</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3307,19 +2827,11 @@
         <v>-9404076.484318988</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3348,19 +2860,11 @@
         <v>-10357415.85131899</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3389,19 +2893,11 @@
         <v>-8937909.553318989</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3430,19 +2926,11 @@
         <v>-10264182.46531899</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3471,19 +2959,11 @@
         <v>-9268464.286318989</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3512,19 +2992,11 @@
         <v>-10433697.71231899</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3553,19 +3025,11 @@
         <v>-9658349.35531899</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3594,19 +3058,11 @@
         <v>-9658349.35531899</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3635,19 +3091,11 @@
         <v>-10730349.39531899</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3676,19 +3124,11 @@
         <v>-10730349.39531899</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3717,19 +3157,11 @@
         <v>-9361697.671318989</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3758,19 +3190,11 @@
         <v>-9361697.671318989</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3799,19 +3223,11 @@
         <v>-10832058.54331899</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3840,19 +3256,11 @@
         <v>-10832058.54331899</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3881,19 +3289,11 @@
         <v>-11709116.04831899</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3922,19 +3322,11 @@
         <v>-10865961.59231899</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3963,19 +3355,11 @@
         <v>-12395652.80131899</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -4004,19 +3388,11 @@
         <v>-11196516.32531899</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4045,19 +3421,11 @@
         <v>-9802437.31431899</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4086,19 +3454,11 @@
         <v>-10611688.72031899</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4127,19 +3487,11 @@
         <v>-9632922.066318991</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4171,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4207,19 +3553,11 @@
         <v>-9921097.987318991</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4248,19 +3586,11 @@
         <v>-8620252.363318991</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4289,19 +3619,11 @@
         <v>-7404164.362318991</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4330,19 +3652,11 @@
         <v>-8323600.679318991</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4371,19 +3685,11 @@
         <v>-8323600.679318991</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4412,19 +3718,11 @@
         <v>-9683776.64031899</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4453,19 +3751,11 @@
         <v>-8247318.81731899</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4494,19 +3784,11 @@
         <v>-9344746.14431899</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4535,19 +3817,11 @@
         <v>-9293878.62021899</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4576,19 +3850,11 @@
         <v>-10009896.64021899</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4617,19 +3883,11 @@
         <v>-8929420.837218991</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4658,19 +3916,11 @@
         <v>-9831905.63021899</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4699,19 +3949,11 @@
         <v>-9124363.372218991</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4740,19 +3982,11 @@
         <v>-10052275.45221899</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4781,19 +4015,11 @@
         <v>-11310742.26521899</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4822,19 +4048,11 @@
         <v>-10526918.14621899</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4863,19 +4081,11 @@
         <v>-11531112.08721899</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4904,19 +4114,11 @@
         <v>-10238742.22521899</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4945,19 +4147,11 @@
         <v>-11387024.12721899</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4986,19 +4180,11 @@
         <v>-9882760.205218993</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -5027,19 +4213,11 @@
         <v>-11149702.78021899</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5068,19 +4246,11 @@
         <v>-10120081.55221899</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5109,19 +4279,11 @@
         <v>-8912469.314218992</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5150,19 +4312,11 @@
         <v>-9950566.305218993</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5191,19 +4345,11 @@
         <v>-11234460.40521899</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5232,19 +4378,11 @@
         <v>-9747148.008218993</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5273,19 +4411,11 @@
         <v>-8302214.423218993</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5314,19 +4444,11 @@
         <v>-8122214.423218993</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5355,19 +4477,11 @@
         <v>-8821280.918218993</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5396,19 +4510,11 @@
         <v>-7821541.931218993</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5437,19 +4543,11 @@
         <v>-10615834.79771899</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5478,19 +4576,11 @@
         <v>-9382795.272718992</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5519,19 +4609,11 @@
         <v>-7861579.826718992</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5560,19 +4642,11 @@
         <v>-7026901.132718991</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5601,19 +4675,11 @@
         <v>-7759870.677718991</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5642,19 +4708,11 @@
         <v>-6306461.330718991</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5683,19 +4741,11 @@
         <v>-7098761.212718992</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5724,19 +4774,11 @@
         <v>-7096539.212718992</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5765,19 +4807,11 @@
         <v>-7897314.856718992</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5806,19 +4840,11 @@
         <v>-7155869.549718992</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5847,19 +4873,11 @@
         <v>-8261772.639718992</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5888,19 +4906,11 @@
         <v>-7373685.758318991</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5929,19 +4939,11 @@
         <v>-8759289.006318992</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5970,19 +4972,11 @@
         <v>-9848240.571318991</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -6011,19 +5005,11 @@
         <v>-8657579.857318992</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -6052,19 +5038,11 @@
         <v>-7642688.153318992</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -6093,19 +5071,11 @@
         <v>-8776240.530318992</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6134,19 +5104,11 @@
         <v>-8778462.530318992</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6175,19 +5137,11 @@
         <v>-7299625.896318993</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6216,19 +5170,11 @@
         <v>-6329335.004318993</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6257,19 +5203,11 @@
         <v>-6384335.004318993</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J146" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6298,19 +5236,11 @@
         <v>-5393173.132793301</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J147" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6339,19 +5269,11 @@
         <v>-6800428.331793301</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J148" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6380,19 +5302,11 @@
         <v>-6855983.331793301</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J149" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6421,19 +5335,11 @@
         <v>-6855983.331793301</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6462,19 +5368,11 @@
         <v>-6855983.331793301</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J151" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6503,19 +5401,11 @@
         <v>-5588115.667793301</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J152" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6544,19 +5434,11 @@
         <v>-5699225.667793301</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J153" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6585,19 +5467,11 @@
         <v>-4070675.557793301</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J154" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6626,19 +5500,11 @@
         <v>-5317976.8457933</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J155" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6667,19 +5533,11 @@
         <v>-5317976.8457933</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="J156" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6708,19 +5566,11 @@
         <v>-5263026.6718933</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="J157" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6749,19 +5599,11 @@
         <v>-6585683.820893301</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="J158" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6790,19 +5632,11 @@
         <v>-5310265.4838933</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0.2512</v>
-      </c>
-      <c r="J159" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6831,19 +5665,11 @@
         <v>-5307876.2208933</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J160" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6872,19 +5698,11 @@
         <v>-6159506.4388933</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="J161" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6916,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6952,19 +5764,11 @@
         <v>-6977233.6078933</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="J163" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6993,19 +5797,11 @@
         <v>-5930660.854893301</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="J164" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -7034,19 +5830,11 @@
         <v>-5856380.967618993</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J165" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -7075,19 +5863,11 @@
         <v>-4341243.427618993</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="J166" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -7116,19 +5896,11 @@
         <v>-3159058.476618993</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0.2537</v>
-      </c>
-      <c r="J167" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7160,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7199,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7238,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7277,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7316,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7355,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7394,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7433,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7472,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7511,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7550,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7589,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7628,14 +6328,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7667,14 +6361,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7706,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7745,14 +6427,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7784,14 +6460,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7823,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7862,14 +6526,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7901,14 +6559,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7940,14 +6592,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7979,14 +6625,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -8018,14 +6658,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -8057,14 +6691,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -8096,14 +6724,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -8135,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8174,14 +6790,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8213,14 +6823,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8252,14 +6856,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8291,14 +6889,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8330,14 +6922,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8369,14 +6955,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8408,14 +6988,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8447,14 +7021,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8486,14 +7054,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8525,14 +7087,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8564,14 +7120,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8603,14 +7153,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8642,14 +7186,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8681,14 +7219,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8720,14 +7252,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8759,14 +7285,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8798,14 +7318,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8837,14 +7351,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8876,14 +7384,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8915,14 +7417,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8954,14 +7450,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8993,14 +7483,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -9032,14 +7516,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -9071,14 +7549,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -9110,14 +7582,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -9149,14 +7615,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9188,14 +7648,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9227,14 +7681,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9266,14 +7714,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9305,14 +7747,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9344,14 +7780,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9380,19 +7810,13 @@
         <v>49173189.98838101</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
-        <v>1.04804829770388</v>
+        <v>1</v>
       </c>
       <c r="M225" t="inlineStr"/>
     </row>
@@ -9419,7 +7843,7 @@
         <v>49173189.98838101</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -9485,7 +7909,7 @@
         <v>40712879.96748102</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9518,7 +7942,7 @@
         <v>39855500.18238102</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9551,7 +7975,7 @@
         <v>43045173.19138102</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -9584,7 +8008,7 @@
         <v>43049498.42738102</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -9617,7 +8041,7 @@
         <v>42265674.30838102</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9650,7 +8074,7 @@
         <v>41130440.91918102</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9683,7 +8107,7 @@
         <v>40126246.97818102</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9749,7 +8173,7 @@
         <v>41053322.17328102</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9782,7 +8206,7 @@
         <v>42201604.07528102</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9815,7 +8239,7 @@
         <v>40697340.15328103</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9848,7 +8272,7 @@
         <v>41964282.72828103</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9881,7 +8305,7 @@
         <v>41986504.41138103</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9947,7 +8371,7 @@
         <v>41386837.77618103</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9980,7 +8404,7 @@
         <v>41533962.77618103</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -10013,7 +8437,7 @@
         <v>40495865.78518103</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -10046,7 +8470,7 @@
         <v>41794261.88518103</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -10079,7 +8503,7 @@
         <v>41796483.88518103</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -10112,7 +8536,7 @@
         <v>40211159.81918103</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -10145,7 +8569,7 @@
         <v>38766226.23418103</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -10178,7 +8602,7 @@
         <v>38067159.73918103</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -10277,7 +8701,7 @@
         <v>34077671.16658104</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10310,7 +8734,7 @@
         <v>34563125.24448104</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10343,7 +8767,7 @@
         <v>40512899.68338104</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10508,7 +8932,7 @@
         <v>40563776.47638104</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10574,7 +8998,7 @@
         <v>38318067.24738104</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10739,7 +9163,7 @@
         <v>38142076.23738104</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10772,7 +9196,7 @@
         <v>36756472.98938104</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10904,7 +9328,7 @@
         <v>37875059.40538105</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10937,7 +9361,7 @@
         <v>37875059.40538105</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -11300,7 +9724,7 @@
         <v>34200976.19378104</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11399,7 +9823,7 @@
         <v>35223115.27448104</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -12191,7 +10615,7 @@
         <v>24687787.28858104</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12224,7 +10648,7 @@
         <v>24691632.55418104</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12323,7 +10747,7 @@
         <v>23034804.91018104</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12356,7 +10780,7 @@
         <v>21615298.61218104</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12389,7 +10813,7 @@
         <v>22941571.52418104</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12422,7 +10846,7 @@
         <v>21945853.34518104</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12455,7 +10879,7 @@
         <v>23111086.77118104</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12488,7 +10912,7 @@
         <v>20453433.98858104</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12521,7 +10945,7 @@
         <v>21230779.30558104</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12554,7 +10978,7 @@
         <v>20294391.46358104</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12587,7 +11011,7 @@
         <v>21366391.50358104</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12620,7 +11044,7 @@
         <v>20616470.43358104</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12653,7 +11077,7 @@
         <v>19247818.70958104</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12686,7 +11110,7 @@
         <v>20192682.31458104</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12719,7 +11143,7 @@
         <v>21678065.19388103</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12752,7 +11176,7 @@
         <v>21662561.31788104</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12785,7 +11209,7 @@
         <v>23834687.04998104</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12818,7 +11242,7 @@
         <v>22957629.54498104</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12851,7 +11275,7 @@
         <v>22114475.08898104</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12884,7 +11308,7 @@
         <v>20584783.87998104</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12917,7 +11341,7 @@
         <v>19385647.40398104</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12950,7 +11374,7 @@
         <v>20781723.37498104</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12983,7 +11407,7 @@
         <v>19972471.96898104</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -13016,7 +11440,7 @@
         <v>18993705.31498104</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -13049,7 +11473,7 @@
         <v>17565723.25498104</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13082,7 +11506,7 @@
         <v>18705529.39398104</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13115,7 +11539,7 @@
         <v>20006375.01798104</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13148,7 +11572,7 @@
         <v>21222463.01898104</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13379,7 +11803,7 @@
         <v>21900524.01098104</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13445,7 +11869,7 @@
         <v>21881367.99468104</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13511,7 +11935,7 @@
         <v>20953455.91468104</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -17438,10 +15862,14 @@
         <v>-69395260.9731679</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="J469" t="n">
+        <v>0.2523</v>
+      </c>
       <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
@@ -17474,8 +15902,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17507,8 +15941,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18296,10 +16736,14 @@
         <v>-75596731.15146786</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="J495" t="n">
+        <v>0.2521</v>
+      </c>
       <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
@@ -18332,8 +16776,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18365,8 +16815,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18395,10 +16851,14 @@
         <v>-74702722.12046786</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="J498" t="n">
+        <v>0.2524</v>
+      </c>
       <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
@@ -18431,8 +16891,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18464,8 +16930,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18494,10 +16966,14 @@
         <v>-77312889.13146786</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="J501" t="n">
+        <v>0.2529</v>
+      </c>
       <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
@@ -18527,11 +17003,19 @@
         <v>-76342598.23946786</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="J502" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18563,8 +17047,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18626,10 +17116,14 @@
         <v>-74499303.82246786</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="J505" t="n">
+        <v>0.2526</v>
+      </c>
       <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
@@ -18662,8 +17156,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18695,8 +17195,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18725,10 +17231,14 @@
         <v>-75435691.66446787</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>0.2532</v>
+      </c>
+      <c r="J508" t="n">
+        <v>0.2532</v>
+      </c>
       <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
@@ -18758,11 +17268,19 @@
         <v>-74380643.14946787</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="J509" t="n">
+        <v>0.2532</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18791,11 +17309,19 @@
         <v>-75698440.29846787</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>0.2536</v>
+      </c>
+      <c r="J510" t="n">
+        <v>0.2532</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18857,10 +17383,14 @@
         <v>-77825488.85346787</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="J512" t="n">
+        <v>0.2524</v>
+      </c>
       <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
@@ -18890,11 +17420,19 @@
         <v>-77007761.68446787</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="J513" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18923,11 +17461,19 @@
         <v>-77969576.81346786</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="J514" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19055,10 +17601,14 @@
         <v>-78122140.53646787</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="J518" t="n">
+        <v>0.2526</v>
+      </c>
       <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
@@ -19091,8 +17641,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19121,11 +17677,19 @@
         <v>-77800061.56646787</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="J520" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19154,10 +17718,14 @@
         <v>-77797953.30286786</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>0.2537</v>
+      </c>
+      <c r="J521" t="n">
+        <v>0.2537</v>
+      </c>
       <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
@@ -19190,8 +17758,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>0.2537</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19220,11 +17794,19 @@
         <v>-78145459.56086786</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="J523" t="n">
+        <v>0.2537</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19253,10 +17835,14 @@
         <v>-77081935.28286786</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="J524" t="n">
+        <v>0.2529</v>
+      </c>
       <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
@@ -19289,8 +17875,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19319,11 +17911,19 @@
         <v>-76607292.58986787</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="J526" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19352,10 +17952,14 @@
         <v>-75916701.85686788</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="J527" t="n">
+        <v>0.2524</v>
+      </c>
       <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
@@ -19385,11 +17989,19 @@
         <v>-77226023.24386787</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="J528" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19418,11 +18030,19 @@
         <v>-76340489.97586787</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="J529" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19451,10 +18071,14 @@
         <v>-77251450.53086787</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I530" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="J530" t="n">
+        <v>0.2533</v>
+      </c>
       <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
@@ -19484,11 +18108,19 @@
         <v>-76484577.93586788</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="J531" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19517,11 +18149,19 @@
         <v>-75760084.15286787</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="J532" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19616,10 +18256,14 @@
         <v>-76022832.78686787</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="J535" t="n">
+        <v>0.2526</v>
+      </c>
       <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
@@ -19649,11 +18293,19 @@
         <v>-74527044.62786788</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="J536" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19685,8 +18337,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19715,10 +18373,14 @@
         <v>-74060877.69686788</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="J538" t="n">
+        <v>0.2528</v>
+      </c>
       <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
@@ -19748,11 +18410,19 @@
         <v>-75387150.60886788</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>0.2534</v>
+      </c>
+      <c r="J539" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19781,11 +18451,19 @@
         <v>-123208544.7878679</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>0.2532</v>
+      </c>
+      <c r="J540" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19817,8 +18495,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19850,8 +18534,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19883,8 +18573,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19916,8 +18612,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19949,8 +18651,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19982,8 +18690,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20015,8 +18729,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20045,15 +18765,17 @@
         <v>-126352738.8088679</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
-      </c>
-      <c r="I548" t="n">
-        <v>0.2527</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
       <c r="J548" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="K548" t="inlineStr"/>
+        <v>0.2528</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20082,17 +18804,15 @@
         <v>-127297602.4138679</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
-      </c>
-      <c r="I549" t="n">
-        <v>0.2527</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
       <c r="J549" t="n">
-        <v>0.2527</v>
+        <v>0.2528</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L549" t="n">
@@ -20123,17 +18843,15 @@
         <v>-128767963.2858679</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
-      </c>
-      <c r="I550" t="n">
-        <v>0.2525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
       <c r="J550" t="n">
-        <v>0.2527</v>
+        <v>0.2528</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L550" t="n">
@@ -20170,9 +18888,13 @@
         <v>0.2523</v>
       </c>
       <c r="J551" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K551" t="inlineStr"/>
+        <v>0.2528</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20207,11 +18929,11 @@
         <v>0.252</v>
       </c>
       <c r="J552" t="n">
-        <v>0.2523</v>
+        <v>0.2528</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L552" t="n">
@@ -20242,17 +18964,15 @@
         <v>-130136615.0098679</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
-      </c>
-      <c r="I553" t="n">
-        <v>0.253</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
       <c r="J553" t="n">
-        <v>0.2523</v>
+        <v>0.2528</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L553" t="n">
@@ -20289,9 +19009,13 @@
         <v>0.2523</v>
       </c>
       <c r="J554" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K554" t="inlineStr"/>
+        <v>0.2528</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20326,11 +19050,11 @@
         <v>0.253</v>
       </c>
       <c r="J555" t="n">
-        <v>0.2523</v>
+        <v>0.2528</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L555" t="n">
@@ -20365,11 +19089,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="n">
-        <v>0.2523</v>
+        <v>0.2528</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L556" t="n">
@@ -20403,8 +19127,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20433,11 +19163,19 @@
         <v>-130808254.2178679</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="J558" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20466,11 +19204,19 @@
         <v>-131889020.8718679</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="J559" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20499,11 +19245,19 @@
         <v>-131790338.0906679</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="J560" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20535,8 +19289,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20571,9 +19331,13 @@
         <v>0.2519</v>
       </c>
       <c r="J562" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="K562" t="inlineStr"/>
+        <v>0.2528</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20602,15 +19366,17 @@
         <v>-130777668.3876679</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>0.2523</v>
+      </c>
       <c r="J563" t="n">
-        <v>0.2519</v>
+        <v>0.2528</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L563" t="n">
@@ -20641,17 +19407,15 @@
         <v>-129561580.3866679</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
-      </c>
-      <c r="I564" t="n">
-        <v>0.253</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
       <c r="J564" t="n">
-        <v>0.2519</v>
+        <v>0.2528</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L564" t="n">
@@ -20682,15 +19446,17 @@
         <v>-130481016.7036679</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
-      </c>
-      <c r="I565" t="n">
-        <v>0.2537</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
       <c r="J565" t="n">
-        <v>0.2537</v>
-      </c>
-      <c r="K565" t="inlineStr"/>
+        <v>0.2528</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20719,17 +19485,15 @@
         <v>-131375025.7336679</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
-      </c>
-      <c r="I566" t="n">
-        <v>0.2531</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
       <c r="J566" t="n">
-        <v>0.2537</v>
+        <v>0.2528</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L566" t="n">
@@ -20760,17 +19524,15 @@
         <v>-130014849.7726679</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
-      </c>
-      <c r="I567" t="n">
-        <v>0.2527</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
       <c r="J567" t="n">
-        <v>0.2537</v>
+        <v>0.2528</v>
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L567" t="n">
@@ -20801,15 +19563,17 @@
         <v>-131451307.5956679</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
-      </c>
-      <c r="I568" t="n">
-        <v>0.2529</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
       <c r="J568" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K568" t="inlineStr"/>
+        <v>0.2528</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20838,17 +19602,15 @@
         <v>-130353880.2686679</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
-      </c>
-      <c r="I569" t="n">
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
+      <c r="J569" t="n">
         <v>0.2528</v>
-      </c>
-      <c r="J569" t="n">
-        <v>0.2529</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L569" t="n">
@@ -20879,17 +19641,15 @@
         <v>-131069898.2886679</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
-      </c>
-      <c r="I570" t="n">
-        <v>0.2537</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
       <c r="J570" t="n">
-        <v>0.2529</v>
+        <v>0.2528</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L570" t="n">
@@ -20920,15 +19680,17 @@
         <v>-132150374.0916679</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
-      </c>
-      <c r="I571" t="n">
-        <v>0.2534</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I571" t="inlineStr"/>
       <c r="J571" t="n">
-        <v>0.2534</v>
-      </c>
-      <c r="K571" t="inlineStr"/>
+        <v>0.2528</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20963,11 +19725,11 @@
         <v>0.2522</v>
       </c>
       <c r="J572" t="n">
-        <v>0.2534</v>
+        <v>0.2528</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L572" t="n">
@@ -21004,11 +19766,11 @@
         <v>0.2525</v>
       </c>
       <c r="J573" t="n">
-        <v>0.2534</v>
+        <v>0.2528</v>
       </c>
       <c r="K573" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L573" t="n">
@@ -21045,9 +19807,13 @@
         <v>0.2521</v>
       </c>
       <c r="J574" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K574" t="inlineStr"/>
+        <v>0.2528</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -21082,11 +19848,11 @@
         <v>0.2524</v>
       </c>
       <c r="J575" t="n">
-        <v>0.2521</v>
+        <v>0.2528</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L575" t="n">
@@ -21123,11 +19889,11 @@
         <v>0.2521</v>
       </c>
       <c r="J576" t="n">
-        <v>0.2521</v>
+        <v>0.2528</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L576" t="n">
@@ -21164,9 +19930,13 @@
         <v>0.2527</v>
       </c>
       <c r="J577" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="K577" t="inlineStr"/>
+        <v>0.2528</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -21201,11 +19971,11 @@
         <v>0.2526</v>
       </c>
       <c r="J578" t="n">
-        <v>0.2527</v>
+        <v>0.2528</v>
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L578" t="n">
@@ -21242,11 +20012,11 @@
         <v>0.2533</v>
       </c>
       <c r="J579" t="n">
-        <v>0.2527</v>
+        <v>0.2528</v>
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L579" t="n">
@@ -21277,11 +20047,19 @@
         <v>-130858004.2296678</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="J580" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -21310,11 +20088,19 @@
         <v>-132124946.8046678</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>0.2535</v>
+      </c>
+      <c r="J581" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -21343,11 +20129,19 @@
         <v>-132122946.8046678</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="J582" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -21376,11 +20170,19 @@
         <v>-133152568.0326678</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>0.2539</v>
+      </c>
+      <c r="J583" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -21409,11 +20211,19 @@
         <v>-131944955.7946678</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="J584" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -21442,11 +20252,19 @@
         <v>-132983052.7856678</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="J585" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -21475,11 +20293,19 @@
         <v>-131699158.6856678</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="J586" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -21508,17 +20334,25 @@
         <v>-130211846.2886678</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="J587" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
       <c r="M587" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest AMO.xlsx
+++ b/BackTest/2020-01-22 BackTest AMO.xlsx
@@ -7810,7 +7810,7 @@
         <v>49173189.98838101</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>49173189.98838101</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>42845836.13998102</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>40712879.96748102</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>41794261.88518103</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>40211159.81918103</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>38766226.23418103</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>35486486.46558104</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>35488701.70158104</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>34077671.16658104</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>34563125.24448104</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>40512899.68338104</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>40563776.47638104</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>38318067.24738104</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>36758458.55238104</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>35669506.98738104</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>36860167.70138104</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>35223115.27448104</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -15862,14 +15862,10 @@
         <v>-69395260.9731679</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
-      </c>
-      <c r="I469" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J469" t="n">
-        <v>0.2523</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
@@ -15902,14 +15898,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15941,14 +15931,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16736,14 +16720,10 @@
         <v>-75596731.15146786</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
-      </c>
-      <c r="I495" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J495" t="n">
-        <v>0.2521</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
@@ -16776,14 +16756,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16815,14 +16789,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16851,14 +16819,10 @@
         <v>-74702722.12046786</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
-      </c>
-      <c r="I498" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J498" t="n">
-        <v>0.2524</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
@@ -16891,14 +16855,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16930,14 +16888,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -16966,14 +16918,10 @@
         <v>-77312889.13146786</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
-      </c>
-      <c r="I501" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="J501" t="n">
-        <v>0.2529</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
@@ -17003,19 +16951,11 @@
         <v>-76342598.23946786</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
-      </c>
-      <c r="I502" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J502" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I502" t="inlineStr"/>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17047,14 +16987,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17116,14 +17050,10 @@
         <v>-74499303.82246786</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
-      </c>
-      <c r="I505" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J505" t="n">
-        <v>0.2526</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
@@ -17156,14 +17086,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17195,14 +17119,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17231,14 +17149,10 @@
         <v>-75435691.66446787</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
-      </c>
-      <c r="I508" t="n">
-        <v>0.2532</v>
-      </c>
-      <c r="J508" t="n">
-        <v>0.2532</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
@@ -17268,19 +17182,11 @@
         <v>-74380643.14946787</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
-      </c>
-      <c r="I509" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J509" t="n">
-        <v>0.2532</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17309,19 +17215,11 @@
         <v>-75698440.29846787</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
-      </c>
-      <c r="I510" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="J510" t="n">
-        <v>0.2532</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17383,14 +17281,10 @@
         <v>-77825488.85346787</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
-      </c>
-      <c r="I512" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J512" t="n">
-        <v>0.2524</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
@@ -17420,19 +17314,11 @@
         <v>-77007761.68446787</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
-      </c>
-      <c r="I513" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J513" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17461,19 +17347,11 @@
         <v>-77969576.81346786</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
-      </c>
-      <c r="I514" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="J514" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I514" t="inlineStr"/>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17601,14 +17479,10 @@
         <v>-78122140.53646787</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
-      </c>
-      <c r="I518" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J518" t="n">
-        <v>0.2526</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I518" t="inlineStr"/>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
@@ -17641,14 +17515,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17677,19 +17545,11 @@
         <v>-77800061.56646787</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
-      </c>
-      <c r="I520" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J520" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17718,14 +17578,10 @@
         <v>-77797953.30286786</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
-      </c>
-      <c r="I521" t="n">
-        <v>0.2537</v>
-      </c>
-      <c r="J521" t="n">
-        <v>0.2537</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
@@ -17758,14 +17614,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>0.2537</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17794,19 +17644,11 @@
         <v>-78145459.56086786</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
-      </c>
-      <c r="I523" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J523" t="n">
-        <v>0.2537</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17835,14 +17677,10 @@
         <v>-77081935.28286786</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
-      </c>
-      <c r="I524" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="J524" t="n">
-        <v>0.2529</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
@@ -17875,14 +17713,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17911,19 +17743,11 @@
         <v>-76607292.58986787</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
-      </c>
-      <c r="I526" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J526" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17952,14 +17776,10 @@
         <v>-75916701.85686788</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
-      </c>
-      <c r="I527" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J527" t="n">
-        <v>0.2524</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
@@ -17989,19 +17809,11 @@
         <v>-77226023.24386787</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
-      </c>
-      <c r="I528" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J528" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18030,19 +17842,11 @@
         <v>-76340489.97586787</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
-      </c>
-      <c r="I529" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J529" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18071,14 +17875,10 @@
         <v>-77251450.53086787</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
-      </c>
-      <c r="I530" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="J530" t="n">
-        <v>0.2533</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
@@ -18108,19 +17908,11 @@
         <v>-76484577.93586788</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
-      </c>
-      <c r="I531" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J531" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18149,19 +17941,11 @@
         <v>-75760084.15286787</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
-      </c>
-      <c r="I532" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="J532" t="n">
-        <v>0.2533</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18256,14 +18040,10 @@
         <v>-76022832.78686787</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
-      </c>
-      <c r="I535" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J535" t="n">
-        <v>0.2526</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
@@ -18293,1287 +18073,1097 @@
         <v>-74527044.62786788</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
-      </c>
-      <c r="I536" t="n">
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
+      <c r="L536" t="n">
+        <v>1</v>
+      </c>
+      <c r="M536" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="C537" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="D537" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="E537" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="F537" t="n">
+        <v>953339.367</v>
+      </c>
+      <c r="G537" t="n">
+        <v>-75480383.99486788</v>
+      </c>
+      <c r="H537" t="n">
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
+      <c r="L537" t="n">
+        <v>1</v>
+      </c>
+      <c r="M537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" t="n">
+        <v>0.2534</v>
+      </c>
+      <c r="C538" t="n">
+        <v>0.2534</v>
+      </c>
+      <c r="D538" t="n">
+        <v>0.2534</v>
+      </c>
+      <c r="E538" t="n">
+        <v>0.2534</v>
+      </c>
+      <c r="F538" t="n">
+        <v>1419506.298</v>
+      </c>
+      <c r="G538" t="n">
+        <v>-74060877.69686788</v>
+      </c>
+      <c r="H538" t="n">
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
+      <c r="L538" t="n">
+        <v>1</v>
+      </c>
+      <c r="M538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" t="n">
+        <v>0.2532</v>
+      </c>
+      <c r="C539" t="n">
+        <v>0.2532</v>
+      </c>
+      <c r="D539" t="n">
+        <v>0.2532</v>
+      </c>
+      <c r="E539" t="n">
+        <v>0.2532</v>
+      </c>
+      <c r="F539" t="n">
+        <v>1326272.912</v>
+      </c>
+      <c r="G539" t="n">
+        <v>-75387150.60886788</v>
+      </c>
+      <c r="H539" t="n">
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
+      <c r="L539" t="n">
+        <v>1</v>
+      </c>
+      <c r="M539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" t="n">
+        <v>0.2537</v>
+      </c>
+      <c r="C540" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="D540" t="n">
+        <v>0.2537</v>
+      </c>
+      <c r="E540" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="F540" t="n">
+        <v>47821394.179</v>
+      </c>
+      <c r="G540" t="n">
+        <v>-123208544.7878679</v>
+      </c>
+      <c r="H540" t="n">
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
+      <c r="L540" t="n">
+        <v>1</v>
+      </c>
+      <c r="M540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="C541" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="D541" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="E541" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="F541" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G541" t="n">
+        <v>-123206544.7878679</v>
+      </c>
+      <c r="H541" t="n">
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
+      <c r="L541" t="n">
+        <v>1</v>
+      </c>
+      <c r="M541" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="C542" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="D542" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="E542" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="F542" t="n">
+        <v>1165233.426</v>
+      </c>
+      <c r="G542" t="n">
+        <v>-124371778.2138679</v>
+      </c>
+      <c r="H542" t="n">
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
+      <c r="L542" t="n">
+        <v>1</v>
+      </c>
+      <c r="M542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B543" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="C543" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="D543" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="E543" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="F543" t="n">
+        <v>775348.357</v>
+      </c>
+      <c r="G543" t="n">
+        <v>-123596429.8568679</v>
+      </c>
+      <c r="H543" t="n">
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
+      <c r="L543" t="n">
+        <v>1</v>
+      </c>
+      <c r="M543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B544" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="C544" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="D544" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="E544" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="F544" t="n">
+        <v>936387.8419999999</v>
+      </c>
+      <c r="G544" t="n">
+        <v>-124532817.6988679</v>
+      </c>
+      <c r="H544" t="n">
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
+      <c r="L544" t="n">
+        <v>1</v>
+      </c>
+      <c r="M544" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B545" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="C545" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="D545" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="E545" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="F545" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G545" t="n">
+        <v>-124530817.6988679</v>
+      </c>
+      <c r="H545" t="n">
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
+      <c r="L545" t="n">
+        <v>1</v>
+      </c>
+      <c r="M545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="B546" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="C546" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="D546" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="E546" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="F546" t="n">
+        <v>1072000.04</v>
+      </c>
+      <c r="G546" t="n">
+        <v>-125602817.7388679</v>
+      </c>
+      <c r="H546" t="n">
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
+      <c r="L546" t="n">
+        <v>1</v>
+      </c>
+      <c r="M546" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="B547" t="n">
         <v>0.2527</v>
       </c>
-      <c r="J536" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K536" t="inlineStr">
+      <c r="C547" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="D547" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="E547" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="F547" t="n">
+        <v>749921.0699999999</v>
+      </c>
+      <c r="G547" t="n">
+        <v>-126352738.8088679</v>
+      </c>
+      <c r="H547" t="n">
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
+      <c r="L547" t="n">
+        <v>1</v>
+      </c>
+      <c r="M547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="B548" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="C548" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="D548" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="E548" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="F548" t="n">
+        <v>1368651.724</v>
+      </c>
+      <c r="G548" t="n">
+        <v>-126352738.8088679</v>
+      </c>
+      <c r="H548" t="n">
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
+      <c r="L548" t="n">
+        <v>1</v>
+      </c>
+      <c r="M548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="B549" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="C549" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="D549" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="E549" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="F549" t="n">
+        <v>944863.605</v>
+      </c>
+      <c r="G549" t="n">
+        <v>-127297602.4138679</v>
+      </c>
+      <c r="H549" t="n">
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
+      <c r="L549" t="n">
+        <v>1</v>
+      </c>
+      <c r="M549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B550" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="C550" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="D550" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="E550" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="F550" t="n">
+        <v>1470360.872</v>
+      </c>
+      <c r="G550" t="n">
+        <v>-128767963.2858679</v>
+      </c>
+      <c r="H550" t="n">
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
+      <c r="L550" t="n">
+        <v>1</v>
+      </c>
+      <c r="M550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B551" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="C551" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="D551" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="E551" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="F551" t="n">
+        <v>1402554.773</v>
+      </c>
+      <c r="G551" t="n">
+        <v>-130170518.0588679</v>
+      </c>
+      <c r="H551" t="n">
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
+      <c r="L551" t="n">
+        <v>1</v>
+      </c>
+      <c r="M551" t="inlineStr"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B552" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="C552" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="D552" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="E552" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="F552" t="n">
+        <v>877057.505</v>
+      </c>
+      <c r="G552" t="n">
+        <v>-129293460.5538679</v>
+      </c>
+      <c r="H552" t="n">
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
+      <c r="L552" t="n">
+        <v>1</v>
+      </c>
+      <c r="M552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="B553" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="C553" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="D553" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="E553" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="F553" t="n">
+        <v>843154.456</v>
+      </c>
+      <c r="G553" t="n">
+        <v>-130136615.0098679</v>
+      </c>
+      <c r="H553" t="n">
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
+      <c r="L553" t="n">
+        <v>1</v>
+      </c>
+      <c r="M553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="B554" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="C554" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="D554" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="E554" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="F554" t="n">
+        <v>1529691.209</v>
+      </c>
+      <c r="G554" t="n">
+        <v>-128606923.8008679</v>
+      </c>
+      <c r="H554" t="n">
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
+      <c r="L554" t="n">
+        <v>1</v>
+      </c>
+      <c r="M554" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="B555" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="C555" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="D555" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="E555" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="F555" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G555" t="n">
+        <v>-128604923.8008679</v>
+      </c>
+      <c r="H555" t="n">
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
+      <c r="L555" t="n">
+        <v>1</v>
+      </c>
+      <c r="M555" t="inlineStr"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
+        <v>554</v>
+      </c>
+      <c r="B556" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="C556" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="D556" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="E556" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="F556" t="n">
+        <v>1201136.476</v>
+      </c>
+      <c r="G556" t="n">
+        <v>-128604923.8008679</v>
+      </c>
+      <c r="H556" t="n">
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
+      <c r="L556" t="n">
+        <v>1</v>
+      </c>
+      <c r="M556" t="inlineStr"/>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="B557" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="C557" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="D557" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="E557" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="F557" t="n">
+        <v>1394079.011</v>
+      </c>
+      <c r="G557" t="n">
+        <v>-129999002.8118679</v>
+      </c>
+      <c r="H557" t="n">
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
+      <c r="L557" t="n">
+        <v>1</v>
+      </c>
+      <c r="M557" t="inlineStr"/>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
+        <v>556</v>
+      </c>
+      <c r="B558" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="C558" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="D558" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="E558" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="F558" t="n">
+        <v>809251.406</v>
+      </c>
+      <c r="G558" t="n">
+        <v>-130808254.2178679</v>
+      </c>
+      <c r="H558" t="n">
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
+      <c r="L558" t="n">
+        <v>1</v>
+      </c>
+      <c r="M558" t="inlineStr"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n">
+        <v>557</v>
+      </c>
+      <c r="B559" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="C559" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="D559" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="E559" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="F559" t="n">
+        <v>1080766.654</v>
+      </c>
+      <c r="G559" t="n">
+        <v>-131889020.8718679</v>
+      </c>
+      <c r="H559" t="n">
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
+      <c r="L559" t="n">
+        <v>1</v>
+      </c>
+      <c r="M559" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="B560" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="C560" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="D560" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="E560" t="n">
+        <v>0.2538</v>
+      </c>
+      <c r="F560" t="n">
+        <v>98682.7812</v>
+      </c>
+      <c r="G560" t="n">
+        <v>-131790338.0906679</v>
+      </c>
+      <c r="H560" t="n">
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
+      <c r="L560" t="n">
+        <v>1</v>
+      </c>
+      <c r="M560" t="inlineStr"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>559</v>
+      </c>
+      <c r="B561" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="C561" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="D561" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="E561" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="F561" t="n">
+        <v>1427982.06</v>
+      </c>
+      <c r="G561" t="n">
+        <v>-133218320.1506679</v>
+      </c>
+      <c r="H561" t="n">
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
+      <c r="L561" t="n">
+        <v>1</v>
+      </c>
+      <c r="M561" t="inlineStr"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="B562" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="C562" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="D562" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="E562" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="F562" t="n">
+        <v>1139806.139</v>
+      </c>
+      <c r="G562" t="n">
+        <v>-132078514.0116679</v>
+      </c>
+      <c r="H562" t="n">
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
+      <c r="L562" t="n">
+        <v>1</v>
+      </c>
+      <c r="M562" t="inlineStr"/>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
+        <v>561</v>
+      </c>
+      <c r="B563" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="C563" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="D563" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="E563" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="F563" t="n">
+        <v>1300845.624</v>
+      </c>
+      <c r="G563" t="n">
+        <v>-130777668.3876679</v>
+      </c>
+      <c r="H563" t="n">
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="J563" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="K563" t="inlineStr"/>
+      <c r="L563" t="n">
+        <v>1</v>
+      </c>
+      <c r="M563" t="inlineStr"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
+        <v>562</v>
+      </c>
+      <c r="B564" t="n">
+        <v>0.2537</v>
+      </c>
+      <c r="C564" t="n">
+        <v>0.2537</v>
+      </c>
+      <c r="D564" t="n">
+        <v>0.2537</v>
+      </c>
+      <c r="E564" t="n">
+        <v>0.2537</v>
+      </c>
+      <c r="F564" t="n">
+        <v>1216088.001</v>
+      </c>
+      <c r="G564" t="n">
+        <v>-129561580.3866679</v>
+      </c>
+      <c r="H564" t="n">
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="K564" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L536" t="n">
-        <v>1</v>
-      </c>
-      <c r="M536" t="inlineStr"/>
-    </row>
-    <row r="537">
-      <c r="A537" s="1" t="n">
-        <v>535</v>
-      </c>
-      <c r="B537" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="C537" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="D537" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="E537" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="F537" t="n">
-        <v>953339.367</v>
-      </c>
-      <c r="G537" t="n">
-        <v>-75480383.99486788</v>
-      </c>
-      <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K537" t="inlineStr">
+      <c r="L564" t="n">
+        <v>1</v>
+      </c>
+      <c r="M564" t="inlineStr"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>563</v>
+      </c>
+      <c r="B565" t="n">
+        <v>0.2531</v>
+      </c>
+      <c r="C565" t="n">
+        <v>0.2531</v>
+      </c>
+      <c r="D565" t="n">
+        <v>0.2531</v>
+      </c>
+      <c r="E565" t="n">
+        <v>0.2531</v>
+      </c>
+      <c r="F565" t="n">
+        <v>919436.317</v>
+      </c>
+      <c r="G565" t="n">
+        <v>-130481016.7036679</v>
+      </c>
+      <c r="H565" t="n">
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>0.2537</v>
+      </c>
+      <c r="J565" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="K565" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L537" t="n">
-        <v>1</v>
-      </c>
-      <c r="M537" t="inlineStr"/>
-    </row>
-    <row r="538">
-      <c r="A538" s="1" t="n">
-        <v>536</v>
-      </c>
-      <c r="B538" t="n">
-        <v>0.2534</v>
-      </c>
-      <c r="C538" t="n">
-        <v>0.2534</v>
-      </c>
-      <c r="D538" t="n">
-        <v>0.2534</v>
-      </c>
-      <c r="E538" t="n">
-        <v>0.2534</v>
-      </c>
-      <c r="F538" t="n">
-        <v>1419506.298</v>
-      </c>
-      <c r="G538" t="n">
-        <v>-74060877.69686788</v>
-      </c>
-      <c r="H538" t="n">
-        <v>1</v>
-      </c>
-      <c r="I538" t="n">
+      <c r="L565" t="n">
+        <v>1</v>
+      </c>
+      <c r="M565" t="inlineStr"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>564</v>
+      </c>
+      <c r="B566" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="C566" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="D566" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="E566" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="F566" t="n">
+        <v>894009.03</v>
+      </c>
+      <c r="G566" t="n">
+        <v>-131375025.7336679</v>
+      </c>
+      <c r="H566" t="n">
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
+      <c r="L566" t="n">
+        <v>1</v>
+      </c>
+      <c r="M566" t="inlineStr"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="B567" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="C567" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="D567" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="E567" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="F567" t="n">
+        <v>1360175.961</v>
+      </c>
+      <c r="G567" t="n">
+        <v>-130014849.7726679</v>
+      </c>
+      <c r="H567" t="n">
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="J567" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="K567" t="inlineStr"/>
+      <c r="L567" t="n">
+        <v>1</v>
+      </c>
+      <c r="M567" t="inlineStr"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="B568" t="n">
         <v>0.2528</v>
       </c>
-      <c r="J538" t="n">
+      <c r="C568" t="n">
         <v>0.2528</v>
       </c>
-      <c r="K538" t="inlineStr"/>
-      <c r="L538" t="n">
-        <v>1</v>
-      </c>
-      <c r="M538" t="inlineStr"/>
-    </row>
-    <row r="539">
-      <c r="A539" s="1" t="n">
-        <v>537</v>
-      </c>
-      <c r="B539" t="n">
-        <v>0.2532</v>
-      </c>
-      <c r="C539" t="n">
-        <v>0.2532</v>
-      </c>
-      <c r="D539" t="n">
-        <v>0.2532</v>
-      </c>
-      <c r="E539" t="n">
-        <v>0.2532</v>
-      </c>
-      <c r="F539" t="n">
-        <v>1326272.912</v>
-      </c>
-      <c r="G539" t="n">
-        <v>-75387150.60886788</v>
-      </c>
-      <c r="H539" t="n">
-        <v>1</v>
-      </c>
-      <c r="I539" t="n">
-        <v>0.2534</v>
-      </c>
-      <c r="J539" t="n">
+      <c r="D568" t="n">
         <v>0.2528</v>
       </c>
-      <c r="K539" t="inlineStr">
+      <c r="E568" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="F568" t="n">
+        <v>1436457.823</v>
+      </c>
+      <c r="G568" t="n">
+        <v>-131451307.5956679</v>
+      </c>
+      <c r="H568" t="n">
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="J568" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="K568" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L539" t="n">
-        <v>1</v>
-      </c>
-      <c r="M539" t="inlineStr"/>
-    </row>
-    <row r="540">
-      <c r="A540" s="1" t="n">
-        <v>538</v>
-      </c>
-      <c r="B540" t="n">
-        <v>0.2537</v>
-      </c>
-      <c r="C540" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="D540" t="n">
-        <v>0.2537</v>
-      </c>
-      <c r="E540" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="F540" t="n">
-        <v>47821394.179</v>
-      </c>
-      <c r="G540" t="n">
-        <v>-123208544.7878679</v>
-      </c>
-      <c r="H540" t="n">
-        <v>1</v>
-      </c>
-      <c r="I540" t="n">
-        <v>0.2532</v>
-      </c>
-      <c r="J540" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L540" t="n">
-        <v>1</v>
-      </c>
-      <c r="M540" t="inlineStr"/>
-    </row>
-    <row r="541">
-      <c r="A541" s="1" t="n">
-        <v>539</v>
-      </c>
-      <c r="B541" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="C541" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="D541" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="E541" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="F541" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G541" t="n">
-        <v>-123206544.7878679</v>
-      </c>
-      <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L541" t="n">
-        <v>1</v>
-      </c>
-      <c r="M541" t="inlineStr"/>
-    </row>
-    <row r="542">
-      <c r="A542" s="1" t="n">
-        <v>540</v>
-      </c>
-      <c r="B542" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="C542" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="D542" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="E542" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="F542" t="n">
-        <v>1165233.426</v>
-      </c>
-      <c r="G542" t="n">
-        <v>-124371778.2138679</v>
-      </c>
-      <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L542" t="n">
-        <v>1</v>
-      </c>
-      <c r="M542" t="inlineStr"/>
-    </row>
-    <row r="543">
-      <c r="A543" s="1" t="n">
-        <v>541</v>
-      </c>
-      <c r="B543" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="C543" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="D543" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="E543" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="F543" t="n">
-        <v>775348.357</v>
-      </c>
-      <c r="G543" t="n">
-        <v>-123596429.8568679</v>
-      </c>
-      <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L543" t="n">
-        <v>1</v>
-      </c>
-      <c r="M543" t="inlineStr"/>
-    </row>
-    <row r="544">
-      <c r="A544" s="1" t="n">
-        <v>542</v>
-      </c>
-      <c r="B544" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="C544" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="D544" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="E544" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="F544" t="n">
-        <v>936387.8419999999</v>
-      </c>
-      <c r="G544" t="n">
-        <v>-124532817.6988679</v>
-      </c>
-      <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L544" t="n">
-        <v>1</v>
-      </c>
-      <c r="M544" t="inlineStr"/>
-    </row>
-    <row r="545">
-      <c r="A545" s="1" t="n">
-        <v>543</v>
-      </c>
-      <c r="B545" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="C545" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="D545" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="E545" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="F545" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G545" t="n">
-        <v>-124530817.6988679</v>
-      </c>
-      <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L545" t="n">
-        <v>1</v>
-      </c>
-      <c r="M545" t="inlineStr"/>
-    </row>
-    <row r="546">
-      <c r="A546" s="1" t="n">
-        <v>544</v>
-      </c>
-      <c r="B546" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="C546" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="D546" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="E546" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="F546" t="n">
-        <v>1072000.04</v>
-      </c>
-      <c r="G546" t="n">
-        <v>-125602817.7388679</v>
-      </c>
-      <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L546" t="n">
-        <v>1</v>
-      </c>
-      <c r="M546" t="inlineStr"/>
-    </row>
-    <row r="547">
-      <c r="A547" s="1" t="n">
-        <v>545</v>
-      </c>
-      <c r="B547" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="C547" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="D547" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="E547" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="F547" t="n">
-        <v>749921.0699999999</v>
-      </c>
-      <c r="G547" t="n">
-        <v>-126352738.8088679</v>
-      </c>
-      <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L547" t="n">
-        <v>1</v>
-      </c>
-      <c r="M547" t="inlineStr"/>
-    </row>
-    <row r="548">
-      <c r="A548" s="1" t="n">
-        <v>546</v>
-      </c>
-      <c r="B548" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="C548" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="D548" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="E548" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="F548" t="n">
-        <v>1368651.724</v>
-      </c>
-      <c r="G548" t="n">
-        <v>-126352738.8088679</v>
-      </c>
-      <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L548" t="n">
-        <v>1</v>
-      </c>
-      <c r="M548" t="inlineStr"/>
-    </row>
-    <row r="549">
-      <c r="A549" s="1" t="n">
-        <v>547</v>
-      </c>
-      <c r="B549" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="C549" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="D549" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="E549" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="F549" t="n">
-        <v>944863.605</v>
-      </c>
-      <c r="G549" t="n">
-        <v>-127297602.4138679</v>
-      </c>
-      <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L549" t="n">
-        <v>1</v>
-      </c>
-      <c r="M549" t="inlineStr"/>
-    </row>
-    <row r="550">
-      <c r="A550" s="1" t="n">
-        <v>548</v>
-      </c>
-      <c r="B550" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="C550" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="D550" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="E550" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="F550" t="n">
-        <v>1470360.872</v>
-      </c>
-      <c r="G550" t="n">
-        <v>-128767963.2858679</v>
-      </c>
-      <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L550" t="n">
-        <v>1</v>
-      </c>
-      <c r="M550" t="inlineStr"/>
-    </row>
-    <row r="551">
-      <c r="A551" s="1" t="n">
-        <v>549</v>
-      </c>
-      <c r="B551" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="C551" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="D551" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="E551" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="F551" t="n">
-        <v>1402554.773</v>
-      </c>
-      <c r="G551" t="n">
-        <v>-130170518.0588679</v>
-      </c>
-      <c r="H551" t="n">
-        <v>1</v>
-      </c>
-      <c r="I551" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J551" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L551" t="n">
-        <v>1</v>
-      </c>
-      <c r="M551" t="inlineStr"/>
-    </row>
-    <row r="552">
-      <c r="A552" s="1" t="n">
-        <v>550</v>
-      </c>
-      <c r="B552" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="C552" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="D552" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="E552" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="F552" t="n">
-        <v>877057.505</v>
-      </c>
-      <c r="G552" t="n">
-        <v>-129293460.5538679</v>
-      </c>
-      <c r="H552" t="n">
-        <v>1</v>
-      </c>
-      <c r="I552" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J552" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L552" t="n">
-        <v>1</v>
-      </c>
-      <c r="M552" t="inlineStr"/>
-    </row>
-    <row r="553">
-      <c r="A553" s="1" t="n">
-        <v>551</v>
-      </c>
-      <c r="B553" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="C553" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="D553" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="E553" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="F553" t="n">
-        <v>843154.456</v>
-      </c>
-      <c r="G553" t="n">
-        <v>-130136615.0098679</v>
-      </c>
-      <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L553" t="n">
-        <v>1</v>
-      </c>
-      <c r="M553" t="inlineStr"/>
-    </row>
-    <row r="554">
-      <c r="A554" s="1" t="n">
-        <v>552</v>
-      </c>
-      <c r="B554" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="C554" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="D554" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="E554" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="F554" t="n">
-        <v>1529691.209</v>
-      </c>
-      <c r="G554" t="n">
-        <v>-128606923.8008679</v>
-      </c>
-      <c r="H554" t="n">
-        <v>1</v>
-      </c>
-      <c r="I554" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J554" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L554" t="n">
-        <v>1</v>
-      </c>
-      <c r="M554" t="inlineStr"/>
-    </row>
-    <row r="555">
-      <c r="A555" s="1" t="n">
-        <v>553</v>
-      </c>
-      <c r="B555" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="C555" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="D555" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="E555" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="F555" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G555" t="n">
-        <v>-128604923.8008679</v>
-      </c>
-      <c r="H555" t="n">
-        <v>1</v>
-      </c>
-      <c r="I555" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="J555" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L555" t="n">
-        <v>1</v>
-      </c>
-      <c r="M555" t="inlineStr"/>
-    </row>
-    <row r="556">
-      <c r="A556" s="1" t="n">
-        <v>554</v>
-      </c>
-      <c r="B556" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="C556" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="D556" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="E556" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="F556" t="n">
-        <v>1201136.476</v>
-      </c>
-      <c r="G556" t="n">
-        <v>-128604923.8008679</v>
-      </c>
-      <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L556" t="n">
-        <v>1</v>
-      </c>
-      <c r="M556" t="inlineStr"/>
-    </row>
-    <row r="557">
-      <c r="A557" s="1" t="n">
-        <v>555</v>
-      </c>
-      <c r="B557" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="C557" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="D557" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="E557" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="F557" t="n">
-        <v>1394079.011</v>
-      </c>
-      <c r="G557" t="n">
-        <v>-129999002.8118679</v>
-      </c>
-      <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L557" t="n">
-        <v>1</v>
-      </c>
-      <c r="M557" t="inlineStr"/>
-    </row>
-    <row r="558">
-      <c r="A558" s="1" t="n">
-        <v>556</v>
-      </c>
-      <c r="B558" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="C558" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="D558" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="E558" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="F558" t="n">
-        <v>809251.406</v>
-      </c>
-      <c r="G558" t="n">
-        <v>-130808254.2178679</v>
-      </c>
-      <c r="H558" t="n">
-        <v>1</v>
-      </c>
-      <c r="I558" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J558" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L558" t="n">
-        <v>1</v>
-      </c>
-      <c r="M558" t="inlineStr"/>
-    </row>
-    <row r="559">
-      <c r="A559" s="1" t="n">
-        <v>557</v>
-      </c>
-      <c r="B559" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="C559" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="D559" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="E559" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="F559" t="n">
-        <v>1080766.654</v>
-      </c>
-      <c r="G559" t="n">
-        <v>-131889020.8718679</v>
-      </c>
-      <c r="H559" t="n">
-        <v>1</v>
-      </c>
-      <c r="I559" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="J559" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L559" t="n">
-        <v>1</v>
-      </c>
-      <c r="M559" t="inlineStr"/>
-    </row>
-    <row r="560">
-      <c r="A560" s="1" t="n">
-        <v>558</v>
-      </c>
-      <c r="B560" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="C560" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="D560" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="E560" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="F560" t="n">
-        <v>98682.7812</v>
-      </c>
-      <c r="G560" t="n">
-        <v>-131790338.0906679</v>
-      </c>
-      <c r="H560" t="n">
-        <v>1</v>
-      </c>
-      <c r="I560" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="J560" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L560" t="n">
-        <v>1</v>
-      </c>
-      <c r="M560" t="inlineStr"/>
-    </row>
-    <row r="561">
-      <c r="A561" s="1" t="n">
-        <v>559</v>
-      </c>
-      <c r="B561" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="C561" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="D561" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="E561" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="F561" t="n">
-        <v>1427982.06</v>
-      </c>
-      <c r="G561" t="n">
-        <v>-133218320.1506679</v>
-      </c>
-      <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L561" t="n">
-        <v>1</v>
-      </c>
-      <c r="M561" t="inlineStr"/>
-    </row>
-    <row r="562">
-      <c r="A562" s="1" t="n">
-        <v>560</v>
-      </c>
-      <c r="B562" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="C562" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="D562" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="E562" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="F562" t="n">
-        <v>1139806.139</v>
-      </c>
-      <c r="G562" t="n">
-        <v>-132078514.0116679</v>
-      </c>
-      <c r="H562" t="n">
-        <v>1</v>
-      </c>
-      <c r="I562" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="J562" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L562" t="n">
-        <v>1</v>
-      </c>
-      <c r="M562" t="inlineStr"/>
-    </row>
-    <row r="563">
-      <c r="A563" s="1" t="n">
-        <v>561</v>
-      </c>
-      <c r="B563" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="C563" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="D563" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="E563" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="F563" t="n">
-        <v>1300845.624</v>
-      </c>
-      <c r="G563" t="n">
-        <v>-130777668.3876679</v>
-      </c>
-      <c r="H563" t="n">
-        <v>1</v>
-      </c>
-      <c r="I563" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J563" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L563" t="n">
-        <v>1</v>
-      </c>
-      <c r="M563" t="inlineStr"/>
-    </row>
-    <row r="564">
-      <c r="A564" s="1" t="n">
-        <v>562</v>
-      </c>
-      <c r="B564" t="n">
-        <v>0.2537</v>
-      </c>
-      <c r="C564" t="n">
-        <v>0.2537</v>
-      </c>
-      <c r="D564" t="n">
-        <v>0.2537</v>
-      </c>
-      <c r="E564" t="n">
-        <v>0.2537</v>
-      </c>
-      <c r="F564" t="n">
-        <v>1216088.001</v>
-      </c>
-      <c r="G564" t="n">
-        <v>-129561580.3866679</v>
-      </c>
-      <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L564" t="n">
-        <v>1</v>
-      </c>
-      <c r="M564" t="inlineStr"/>
-    </row>
-    <row r="565">
-      <c r="A565" s="1" t="n">
-        <v>563</v>
-      </c>
-      <c r="B565" t="n">
-        <v>0.2531</v>
-      </c>
-      <c r="C565" t="n">
-        <v>0.2531</v>
-      </c>
-      <c r="D565" t="n">
-        <v>0.2531</v>
-      </c>
-      <c r="E565" t="n">
-        <v>0.2531</v>
-      </c>
-      <c r="F565" t="n">
-        <v>919436.317</v>
-      </c>
-      <c r="G565" t="n">
-        <v>-130481016.7036679</v>
-      </c>
-      <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L565" t="n">
-        <v>1</v>
-      </c>
-      <c r="M565" t="inlineStr"/>
-    </row>
-    <row r="566">
-      <c r="A566" s="1" t="n">
-        <v>564</v>
-      </c>
-      <c r="B566" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="C566" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="D566" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="E566" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="F566" t="n">
-        <v>894009.03</v>
-      </c>
-      <c r="G566" t="n">
-        <v>-131375025.7336679</v>
-      </c>
-      <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L566" t="n">
-        <v>1</v>
-      </c>
-      <c r="M566" t="inlineStr"/>
-    </row>
-    <row r="567">
-      <c r="A567" s="1" t="n">
-        <v>565</v>
-      </c>
-      <c r="B567" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="C567" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="D567" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="E567" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="F567" t="n">
-        <v>1360175.961</v>
-      </c>
-      <c r="G567" t="n">
-        <v>-130014849.7726679</v>
-      </c>
-      <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L567" t="n">
-        <v>1</v>
-      </c>
-      <c r="M567" t="inlineStr"/>
-    </row>
-    <row r="568">
-      <c r="A568" s="1" t="n">
-        <v>566</v>
-      </c>
-      <c r="B568" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="C568" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="D568" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="E568" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="F568" t="n">
-        <v>1436457.823</v>
-      </c>
-      <c r="G568" t="n">
-        <v>-131451307.5956679</v>
-      </c>
-      <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19602,15 +19192,17 @@
         <v>-130353880.2686679</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>0.2528</v>
+      </c>
       <c r="J569" t="n">
-        <v>0.2528</v>
+        <v>0.2527</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L569" t="n">
@@ -19641,17 +19233,15 @@
         <v>-131069898.2886679</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>0.2537</v>
+      </c>
       <c r="J570" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.2537</v>
+      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19680,15 +19270,17 @@
         <v>-132150374.0916679</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>0.2534</v>
+      </c>
       <c r="J571" t="n">
-        <v>0.2528</v>
+        <v>0.2537</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L571" t="n">
@@ -19725,11 +19317,11 @@
         <v>0.2522</v>
       </c>
       <c r="J572" t="n">
-        <v>0.2528</v>
+        <v>0.2537</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L572" t="n">
@@ -19766,13 +19358,9 @@
         <v>0.2525</v>
       </c>
       <c r="J573" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.2525</v>
+      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19807,11 +19395,11 @@
         <v>0.2521</v>
       </c>
       <c r="J574" t="n">
-        <v>0.2528</v>
+        <v>0.2525</v>
       </c>
       <c r="K574" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L574" t="n">
@@ -19848,11 +19436,11 @@
         <v>0.2524</v>
       </c>
       <c r="J575" t="n">
-        <v>0.2528</v>
+        <v>0.2525</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L575" t="n">
@@ -19889,13 +19477,9 @@
         <v>0.2521</v>
       </c>
       <c r="J576" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.2521</v>
+      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19930,11 +19514,11 @@
         <v>0.2527</v>
       </c>
       <c r="J577" t="n">
-        <v>0.2528</v>
+        <v>0.2521</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L577" t="n">
@@ -19971,11 +19555,11 @@
         <v>0.2526</v>
       </c>
       <c r="J578" t="n">
-        <v>0.2528</v>
+        <v>0.2521</v>
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L578" t="n">
@@ -20012,13 +19596,9 @@
         <v>0.2533</v>
       </c>
       <c r="J579" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.2533</v>
+      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20053,11 +19633,11 @@
         <v>0.2528</v>
       </c>
       <c r="J580" t="n">
-        <v>0.2528</v>
+        <v>0.2533</v>
       </c>
       <c r="K580" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L580" t="n">
@@ -20094,11 +19674,11 @@
         <v>0.2535</v>
       </c>
       <c r="J581" t="n">
-        <v>0.2528</v>
+        <v>0.2533</v>
       </c>
       <c r="K581" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L581" t="n">
@@ -20135,13 +19715,9 @@
         <v>0.2526</v>
       </c>
       <c r="J582" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.2526</v>
+      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20176,11 +19752,11 @@
         <v>0.2539</v>
       </c>
       <c r="J583" t="n">
-        <v>0.2528</v>
+        <v>0.2526</v>
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L583" t="n">
@@ -20217,11 +19793,11 @@
         <v>0.2521</v>
       </c>
       <c r="J584" t="n">
-        <v>0.2528</v>
+        <v>0.2526</v>
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L584" t="n">
@@ -20258,13 +19834,9 @@
         <v>0.2538</v>
       </c>
       <c r="J585" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.2538</v>
+      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20299,11 +19871,11 @@
         <v>0.2522</v>
       </c>
       <c r="J586" t="n">
-        <v>0.2528</v>
+        <v>0.2538</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L586" t="n">
@@ -20340,11 +19912,11 @@
         <v>0.2525</v>
       </c>
       <c r="J587" t="n">
-        <v>0.2528</v>
+        <v>0.2538</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L587" t="n">
